--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1391.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1391.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.380064275443096</v>
+        <v>1.191952586174011</v>
       </c>
       <c r="B1">
-        <v>2.504832517847068</v>
+        <v>2.260015249252319</v>
       </c>
       <c r="C1">
-        <v>3.053484994893371</v>
+        <v>6.612365245819092</v>
       </c>
       <c r="D1">
-        <v>3.505095513736132</v>
+        <v>2.302503347396851</v>
       </c>
       <c r="E1">
-        <v>1.283325375528905</v>
+        <v>1.188462853431702</v>
       </c>
     </row>
   </sheetData>
